--- a/Daisy-xls/ResearchPages/research-head-and-neck-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-head-and-neck-cancer.xlsx
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,12 +183,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -237,6 +252,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,7 +562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -583,7 +601,9 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="17">
+        <v>484117</v>
+      </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
@@ -599,7 +619,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8">
+        <v>903672</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
@@ -615,7 +637,9 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17">
+        <v>900750</v>
+      </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
@@ -631,7 +655,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="17">
+        <v>662098</v>
+      </c>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
@@ -647,7 +673,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="17">
+        <v>595560</v>
+      </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
@@ -663,7 +691,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="17">
+        <v>587031</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
